--- a/Assets/Tables/trigram.xlsx
+++ b/Assets/Tables/trigram.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF7793D-BD9F-4944-ADEA-7BCC7533A4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D75A1F-B141-4CD5-9F90-64BEB1B8AEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trigram" sheetId="4" r:id="rId1"/>
     <sheet name="element" sheetId="2" r:id="rId2"/>
+    <sheet name="hexagram" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -159,16 +160,336 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>elementType key</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
+    <t>id_up</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾为天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯阳，至阳至刚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卦名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卦象</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天风姤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>坤为地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯阴，至阴至柔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚多易折（自残）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚猛无匹（破甲、增伤）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚载万物，运行不息（真气相关）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水雷屯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>木得天雨而沐之</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>破裂之象，皆虚（敌我削弱）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>面对困难而思慎之像（战术次数增加）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（移动力丧失）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山水蒙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山下有水，山下有险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙昧、结石、耳闭、失聪（骗术、幻术）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（费用随机）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水天需</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水讼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地水师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水地比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风天小畜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天泽履</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山遁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风地观</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山地剥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火地晋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火天大有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑为泽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽水困</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽地萃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽山咸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水山蹇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地山谦</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷山小过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷泽归妹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>离为火</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山旅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火风鼎</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火水未济</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风水涣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天火同人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>震为雷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷地豫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷水解</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷风恒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地风升</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水风井</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽风大过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽雷随</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>巽为风</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风火家人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雷益</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷无妄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火雷噬嗑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山雷颐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山风蛊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎为水</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泽节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水火既济</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽火革</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷火丰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地火明夷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮为山</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山火贲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山天大畜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山泽损</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火泽睽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风泽中孚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风山渐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地泽临</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地天泰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷天大壮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽天夬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -262,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,7 +894,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A11" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,9 +932,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -695,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,7 +1047,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -735,9 +1057,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -804,4 +1124,809 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0A965-4627-416D-89FB-40F6A4B6967A}">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Assets/Tables/trigram.xlsx
+++ b/Assets/Tables/trigram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doom\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D75A1F-B141-4CD5-9F90-64BEB1B8AEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512330AB-E72E-480B-BB34-974A6D1B6F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="6645" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trigram" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -489,6 +489,46 @@
   </si>
   <si>
     <t>泽天夬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>巽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>坤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>震</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>离</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -893,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA1140D-E7C3-4C0B-84D7-7DF1D21C9F63}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A8:A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -922,6 +962,9 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -929,6 +972,9 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -945,7 +991,9 @@
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -954,7 +1002,9 @@
       <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -963,7 +1013,9 @@
       <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -972,7 +1024,9 @@
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -981,7 +1035,9 @@
       <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -990,6 +1046,9 @@
       <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C11" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -998,6 +1057,9 @@
       <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="C12" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -1005,6 +1067,9 @@
       </c>
       <c r="B13" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0A965-4627-416D-89FB-40F6A4B6967A}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Tables/trigram.xlsx
+++ b/Assets/Tables/trigram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512330AB-E72E-480B-BB34-974A6D1B6F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60661110-1A01-43FD-85E7-DAD60B5103B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="6645" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="4035" windowWidth="27090" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trigram" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -530,6 +530,14 @@
   <si>
     <t>兑</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,6 +594,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -933,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA1140D-E7C3-4C0B-84D7-7DF1D21C9F63}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,7 +987,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1082,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1133,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
